--- a/implementacao_g12/origin_server/log_export/test_data/logs.xlsx
+++ b/implementacao_g12/origin_server/log_export/test_data/logs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno Rego\Desktop\ProjetoSIDESII\implementacao_g12\origin_server\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno Rego\Dropbox\xampp\htdocs\ProjetoSIDESII\implementacao_g12\origin_server\log_export\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6669A94-B9DE-4242-B640-E717EB4902B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53B7F5A-B603-4180-AA99-ECE3B3601049}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="719" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3900" yWindow="2475" windowWidth="15375" windowHeight="8325" tabRatio="719" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logDiaSemana" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
       </c>
       <c r="D1" s="1">
         <f ca="1">NOW()</f>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -453,7 +453,7 @@
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D10" ca="1" si="0">NOW()</f>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -474,7 +474,7 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -495,7 +495,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -516,7 +516,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -558,7 +558,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -579,7 +579,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -600,7 +600,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -668,7 +668,7 @@
       </c>
       <c r="D1" s="1">
         <f ca="1">NOW()</f>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -678,7 +678,7 @@
       </c>
       <c r="G1" s="1">
         <f ca="1">NOW()</f>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -696,7 +696,7 @@
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D10" ca="1" si="0">NOW()</f>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -706,7 +706,7 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" ref="G2:G10" ca="1" si="1">NOW()</f>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -724,7 +724,7 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -734,7 +734,7 @@
       </c>
       <c r="G3" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -752,7 +752,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="G4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -780,7 +780,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -790,7 +790,7 @@
       </c>
       <c r="G5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -808,7 +808,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E6">
         <v>6</v>
@@ -818,7 +818,7 @@
       </c>
       <c r="G6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -836,7 +836,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -846,7 +846,7 @@
       </c>
       <c r="G7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -864,7 +864,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="G8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -892,7 +892,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E9">
         <v>9</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="G9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -920,7 +920,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -930,7 +930,7 @@
       </c>
       <c r="G10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -945,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875B85F0-6EE8-42C9-ADF2-3B73D29DEDBC}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
@@ -971,7 +971,7 @@
       </c>
       <c r="D1" s="1">
         <f ca="1">NOW()</f>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E1" s="2">
         <v>0.5</v>
@@ -989,7 +989,7 @@
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D10" ca="1" si="0">NOW()</f>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E2" s="2">
         <v>0.54166666666666696</v>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E3" s="2">
         <v>0.58333333333333304</v>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E4" s="2">
         <v>0.625000000000001</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E5" s="2">
         <v>0.66666666666666796</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E6" s="2">
         <v>0.70833333333333504</v>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E7" s="2">
         <v>0.750000000000002</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E8" s="2">
         <v>0.79166666666666896</v>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E9" s="2">
         <v>0.83333333333333603</v>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E10" s="2">
         <v>0.875000000000003</v>
@@ -1160,6 +1160,7 @@
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
@@ -1175,7 +1176,7 @@
       </c>
       <c r="D1" s="1">
         <f ca="1">NOW()</f>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E1">
         <v>40</v>
@@ -1199,7 +1200,7 @@
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D10" ca="1" si="0">NOW()</f>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E2">
         <v>40</v>
@@ -1223,7 +1224,7 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -1247,7 +1248,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -1271,7 +1272,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -1295,7 +1296,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -1319,7 +1320,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E7">
         <v>40</v>
@@ -1343,7 +1344,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E8">
         <v>40</v>
@@ -1367,7 +1368,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -1391,7 +1392,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E10">
         <v>40</v>
@@ -1412,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C01169F-E2B2-49BD-9387-339A14C8667E}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1439,7 @@
       </c>
       <c r="D1" s="1">
         <f ca="1">NOW()</f>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -1465,7 +1466,7 @@
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D10" ca="1" si="0">NOW()</f>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -1492,7 +1493,7 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
@@ -1519,7 +1520,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -1546,7 +1547,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -1573,7 +1574,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
@@ -1600,7 +1601,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -1627,7 +1628,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -1654,7 +1655,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -1681,7 +1682,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
@@ -1742,7 +1743,7 @@
       </c>
       <c r="D1" s="1">
         <f ca="1">NOW()</f>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -1766,7 +1767,7 @@
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D10" ca="1" si="0">NOW()</f>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>8</v>
@@ -1790,7 +1791,7 @@
       </c>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>8</v>
@@ -1814,7 +1815,7 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>8</v>
@@ -1838,7 +1839,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>8</v>
@@ -1862,7 +1863,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
@@ -1886,7 +1887,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
@@ -1910,7 +1911,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
@@ -1934,7 +1935,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
@@ -1958,7 +1959,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43922.568545601855</v>
+        <v>43924.768366087963</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
